--- a/public/templates/without-calculating.xlsx
+++ b/public/templates/without-calculating.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daust\projects\eda\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB91935-BA4D-4EC9-B887-C0F9BC01C0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8431DF2E-31DD-4F35-9386-F9EA35B14D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EF595308-AD4D-4EE2-AEBB-2D431F6BA762}"/>
   </bookViews>
@@ -124,14 +124,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -143,6 +140,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -481,53 +487,54 @@
   <dimension ref="A3:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="9" style="5"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9" style="4"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="8"/>
+    <col min="8" max="8" width="17.28515625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:9" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
+      <c r="H4" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/templates/without-calculating.xlsx
+++ b/public/templates/without-calculating.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daust\projects\eda\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8431DF2E-31DD-4F35-9386-F9EA35B14D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B03C20C-A3F4-4B07-A043-C0B875DB4D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EF595308-AD4D-4EE2-AEBB-2D431F6BA762}"/>
   </bookViews>
@@ -124,7 +124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -141,14 +141,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -487,18 +490,18 @@
   <dimension ref="A3:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9" style="4"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="8"/>
-    <col min="8" max="8" width="17.28515625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="7"/>
+    <col min="8" max="8" width="17.28515625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:9" ht="81" customHeight="1" x14ac:dyDescent="0.25">
@@ -531,10 +534,10 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="6"/>
+      <c r="H4" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
